--- a/data/trans_dic/P35_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P35_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que bebe alcohol diariamente</t>
+          <t>Población que bebe alcohol diariamente (tasa de respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,79%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,66%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>1,04%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>1,8%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>4,74%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>3,44%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>2,15%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>1,27%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,09; 12,4</t>
+          <t>2,43; 11,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 11,14</t>
+          <t>2,69; 11,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 15,05</t>
+          <t>0,58; 6,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,94</t>
+          <t>1,88; 11,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 6,36</t>
+          <t>0,0; 4,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,6</t>
+          <t>0,64; 6,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,85</t>
+          <t>0,0; 3,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 8,34</t>
+          <t>0,0; 3,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 6,08</t>
+          <t>0,0; 5,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 7,74</t>
+          <t>0,0; 6,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 7,73</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,61; 5,56</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 3,95</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 6,07</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 3,14</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>5,47%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>3,34%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,98%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>3,11%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>0,51%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>8,27%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>4,83%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>4,92%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>8,21%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>1,96%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,29; 24,45</t>
+          <t>7,96; 24,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 10,88</t>
+          <t>3,51; 9,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,4; 12,63</t>
+          <t>4,58; 12,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,09</t>
+          <t>2,49; 10,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,61</t>
+          <t>0,88; 9,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 7,32</t>
+          <t>2,0; 11,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,98</t>
+          <t>0,54; 5,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,85</t>
+          <t>1,31; 6,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 15,17</t>
+          <t>0,43; 4,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 7,45</t>
+          <t>1,2; 6,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,92; 7,29</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 5,13</t>
+          <t>0,0; 3,63</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,88; 14,28</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,84; 7,26</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,13; 7,58</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 7,25</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 4,89</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 6,17</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>10,24%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>8,79%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>2,43%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>8,52%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>8,03%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>7,69%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>4,13%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9,23%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>7,73%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>7,07%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
           <t>5,78%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,33; 19,42</t>
+          <t>10,03; 21,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,24; 18,54</t>
+          <t>8,98; 18,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,7; 17,05</t>
+          <t>8,76; 16,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,53; 12,81</t>
+          <t>6,59; 14,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,34</t>
+          <t>5,71; 13,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,44</t>
+          <t>3,19; 10,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,39</t>
+          <t>2,04; 6,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,17</t>
+          <t>1,57; 5,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 12,16</t>
+          <t>1,8; 5,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 10,49</t>
+          <t>2,16; 7,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,73; 10,06</t>
+          <t>0,82; 4,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 8,18</t>
+          <t>1,88; 7,21</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>6,78; 12,92</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5,78; 10,18</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>5,79; 10,34</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>5,16; 9,8</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>3,94; 8,14</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>3,39; 7,8</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,19%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>16,87%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>14,07%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,94%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5,46%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,75%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>3,84%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>17,24%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>14,83%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>14,1%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>17,2%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>14,82%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>9,23%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>11,48%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,78; 31,94</t>
+          <t>20,7; 31,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,1; 28,63</t>
+          <t>18,88; 28,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,31; 28,73</t>
+          <t>18,06; 27,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,84; 19,9</t>
+          <t>12,26; 22,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,89; 12,74</t>
+          <t>9,65; 19,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,57; 9,66</t>
+          <t>13,78; 25,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,96</t>
+          <t>6,13; 12,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,76</t>
+          <t>4,64; 9,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,08; 20,72</t>
+          <t>3,6; 8,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,36; 17,88</t>
+          <t>3,54; 8,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 17,28</t>
+          <t>1,75; 6,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,74; 12,35</t>
+          <t>1,64; 6,67</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>14,17; 20,51</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>12,18; 17,9</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>11,53; 17,14</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>8,83; 14,37</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 12,27</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>8,8; 15,43</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>33,44%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>35,67%</t>
+          <t>35,8%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>26,85%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>24,37%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>10,1%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>11,35%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8,01%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>6,0%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>21,58%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>22,38%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>21,52%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>21,74%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>22,4%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>21,6%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>19,51%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>14,76%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>14,21%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,75; 41,48</t>
+          <t>27,72; 40,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,86; 39,21</t>
+          <t>27,09; 39,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,98; 42,24</t>
+          <t>30,08; 41,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,3; 31,71</t>
+          <t>21,2; 33,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,69; 14,32</t>
+          <t>18,67; 31,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 15,56</t>
+          <t>14,25; 25,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 11,53</t>
+          <t>6,36; 13,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,22; 9,79</t>
+          <t>8,2; 15,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,62; 26,39</t>
+          <t>4,93; 11,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,88; 25,71</t>
+          <t>8,55; 17,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,02; 25,67</t>
+          <t>3,23; 9,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,42; 18,58</t>
+          <t>5,66; 13,49</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>17,86; 25,96</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>18,65; 26,0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>18,14; 25,27</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>15,56; 23,37</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>11,88; 18,68</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>11,22; 18,06</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>28,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>36,99%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>39,75%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>30,32%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,79%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>5,72%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>17,06%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>17,82%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>18,99%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>21,1%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>14,27%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>15,23%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,3; 36,56</t>
+          <t>22,84; 36,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,55; 39,67</t>
+          <t>25,1; 40,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,0; 45,1</t>
+          <t>29,49; 44,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,14; 39,21</t>
+          <t>30,73; 48,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,62; 11,93</t>
+          <t>23,08; 39,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,14; 10,01</t>
+          <t>21,27; 36,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,08; 8,02</t>
+          <t>5,22; 12,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,62</t>
+          <t>4,39; 10,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,29; 21,05</t>
+          <t>3,18; 8,42</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,19; 22,05</t>
+          <t>3,17; 11,25</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,29; 23,64</t>
+          <t>0,97; 5,86</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,33; 18,43</t>
+          <t>2,96; 9,8</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>13,59; 20,95</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>14,55; 22,45</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>15,26; 23,84</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>16,63; 27,14</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>10,62; 18,59</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>11,4; 19,31</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>17,26%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>13,45%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>6,01%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>2,88%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>12,96%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>11,86%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>11,58%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>4,12%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>13,1%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>11,82%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>11,47%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>11,3%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>8,15%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>8,55%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,8; 23,11</t>
+          <t>18,03; 23,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,65; 20,93</t>
+          <t>16,57; 20,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,26; 21,75</t>
+          <t>17,11; 21,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,33; 15,61</t>
+          <t>14,77; 19,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,88; 7,34</t>
+          <t>11,48; 15,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,44; 6,59</t>
+          <t>10,98; 15,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,15</t>
+          <t>4,98; 7,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,87</t>
+          <t>4,36; 6,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,52; 14,51</t>
+          <t>3,36; 5,11</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,68; 13,17</t>
+          <t>4,45; 6,98</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,44; 13,01</t>
+          <t>1,97; 3,96</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,94; 9,42</t>
+          <t>3,02; 5,46</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>11,72; 14,8</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>10,65; 13,18</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>10,34; 12,8</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>9,99; 13,0</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>7,06; 9,4</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>7,43; 9,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que bebe alcohol diariamente (tasa de respuesta: 99,85%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>31191</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>28947</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12022</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>22888</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11890</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5320</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>43081</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>34267</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>16604</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>28034</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12191; 56938</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>14087; 58072</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2945; 32350</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8654; 50777</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1755</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3001; 28777</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18232</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16180</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24632</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2302</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>23139; 75066</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>16684; 57586</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5182; 40238</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>9493; 56900</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>303; 2496</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>77978</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>34932</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>45167</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>31741</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1653</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2557</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11481</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15735</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8779</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16828</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>89460</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>50668</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>53947</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>48569</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3085</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>45630; 139650</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19724; 55294</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>27226; 74004</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>14461; 60358</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>436; 4553</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>945; 5411</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2783; 28094</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6644; 33892</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2209; 22500</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6003; 34902</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1139</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1650</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>53148; 155627</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>30313; 77588</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>34823; 84296</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>26834; 78272</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>454; 4710</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1286; 5715</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>101735</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>86906</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>83823</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>69236</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5292</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3777</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27127</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22665</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>23957</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>29135</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2265</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>128862</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>109571</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>107780</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>98371</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>6601</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>6042</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>68546; 145421</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>60891; 123126</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>59569; 114697</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>44582; 100028</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3438; 8117</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1941; 6182</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14553; 48435</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11261; 39595</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12819; 39206</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>15416; 50308</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>441; 2635</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1031; 3956</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>94721; 180386</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>80640; 141941</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>80681; 144076</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>71819; 136391</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>4501; 9289</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>3916; 9024</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>168382</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>149285</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>144405</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>110723</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8200</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10654</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>60836</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>45768</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>35911</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>37684</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>229218</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>195053</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>180317</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>148407</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>10214</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>12598</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>134002; 205117</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>121652; 181432</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>114964; 175655</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>80444; 145280</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5624; 11093</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7808; 14460</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>42000; 88122</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>31195; 66229</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>23697; 56597</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>23209; 56701</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>918; 3657</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>872; 3538</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>188863; 273370</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>160308; 235490</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>149296; 221908</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>115803; 188334</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>7511; 13588</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>9661; 16933</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>167167</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>168493</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>176658</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>132894</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10842</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8847</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>50706</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>57100</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>41238</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>64577</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2927</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4072</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>217873</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>225593</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>217897</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>197471</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>13769</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>12919</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>137296; 202483</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>136484; 198570</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>148426; 205455</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>104946; 166921</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8307; 13887</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6316; 11412</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>32265; 70433</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>41275; 80057</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>25409; 60183</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>44176; 90985</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1576; 4860</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2636; 6288</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>179011; 260227</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>187774; 261858</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>182981; 254876</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>157492; 236512</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>11080; 17420</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>10204; 16424</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>158043</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>169825</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>195015</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>225135</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>14200</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12988</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>57428</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>47583</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>37281</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>46910</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1576</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>3624</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>215471</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>217407</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>232295</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>272045</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>15776</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>16612</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>124549; 199817</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>132840; 213685</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>156996; 239533</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>174069; 273527</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>10811; 18296</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>9708; 16821</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>37451; 89787</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>30290; 71840</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>21969; 58141</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>22889; 81337</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>619; 3736</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>1876; 6216</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>171621; 264612</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>177426; 273894</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>186629; 291596</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>214421; 349830</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>11736; 20556</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>12434; 21054</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>337.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>362.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>704497</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>638387</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>657090</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>592619</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>40521</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>38824</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>219467</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>194171</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>151749</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>200279</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>8740</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>12433</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>923965</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>832558</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>808839</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>792897</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>49260</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>51257</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>621387; 809178</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>570217; 716463</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>588683; 736332</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>507205; 683019</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>34606; 47339</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>32698; 45583</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>179653; 274124</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>156980; 234334</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>121395; 184275</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>159667; 250335</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>5977; 11995</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>9117; 16471</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>827041; 1044448</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>749949; 928013</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>729159; 902168</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>701391; 912630</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>42689; 56816</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>44568; 59233</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
